--- a/domain-prompts.xlsx
+++ b/domain-prompts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaseminoztas/Desktop/my_audit_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9A9B39-3DD2-B249-8F5F-025C84D72C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A6AE42-4D62-264E-BA0A-7CAC6ADA4B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{E47FA30C-7F41-214C-8FD8-D3405F53DFDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="166">
   <si>
     <t>Domain</t>
   </si>
@@ -423,14 +423,177 @@
   </si>
   <si>
     <t>asset lifecycle, outdated firmware, unpatched vulnerabilities, COBIT APO01, decommissioning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The organization is preparing its financial statements for year-end. You discover inconsistent revenue recognition practices across different subsidiaries. Investigate how this might violate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IFRS 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or local </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GAAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rules. Propose a standardized policy and controls to ensure consistent application of revenue recognition principles.</t>
+    </r>
+  </si>
+  <si>
+    <t>Business Audit</t>
+  </si>
+  <si>
+    <t>Financial Reporting</t>
+  </si>
+  <si>
+    <t>IFRS (IFRS 15), GAAP</t>
+  </si>
+  <si>
+    <t>Revenue &amp; Receivables</t>
+  </si>
+  <si>
+    <t>During the audit, you find that accounts receivable turnover has drastically slowed, yet revenue figures remain high. Assess the risk of misstated revenue, referencing ISA requirements for audit evidence. Recommend procedures (e.g., confirmation of receivables, cut-off testing) to validate revenue accuracy.</t>
+  </si>
+  <si>
+    <t>ISA (International Standards on Auditing), IFRS / GAAP (Revenue Recognition)</t>
+  </si>
+  <si>
+    <t>A manufacturing client uses different valuation methods (FIFO, Weighted Average) across various plants without a clear policy. Examine how this inconsistency might affect the financial statements under IFRS (IAS 2) or GAAP. Propose controls and a unified approach to ensure consistent inventory valuation.</t>
+  </si>
+  <si>
+    <t>Inventory Management</t>
+  </si>
+  <si>
+    <t>IFRS (IAS 2), GAAP</t>
+  </si>
+  <si>
+    <t>Internal Controls over Financial Reporting</t>
+  </si>
+  <si>
+    <t>You find that management hasn’t performed a formal risk assessment or control review in two years. Describe how this violates COSO Internal Control principles. Outline a plan to conduct a control self-assessment and document key controls to meet SOX 404 requirements.</t>
+  </si>
+  <si>
+    <t>COSO Internal Control – Integrated Framework, Sarbanes-Oxley (SOX)</t>
+  </si>
+  <si>
+    <t>Enterprise Risk Management</t>
+  </si>
+  <si>
+    <t>The company recently expanded into new markets but has not updated its risk register. Reference COSO ERM to identify potential strategic and operational risks. Propose a process to integrate these risks into the existing ERM framework and regularly review them at the board level.</t>
+  </si>
+  <si>
+    <t>COSO Enterprise Risk Management (ERM)</t>
+  </si>
+  <si>
+    <t>Management consolidates financial information from multiple segments without a transparent allocation of shared costs. Analyze the potential misstatement under IFRS 8 or GAAP segment reporting rules. Recommend ways to improve segment disclosures and ensure compliance.</t>
+  </si>
+  <si>
+    <t>Segment Reporting</t>
+  </si>
+  <si>
+    <t>IFRS 8, GAAP (Segment Reporting)</t>
+  </si>
+  <si>
+    <t>You observe a weak ‘tone at the top,’ where management does not enforce policies consistently. Discuss the importance of a strong control environment per COSO and how leadership’s behavior impacts compliance with SOX internal control requirements.</t>
+  </si>
+  <si>
+    <t>Control Environment &amp; Culture</t>
+  </si>
+  <si>
+    <t>COSO Internal Control, SOX (Control Environment)</t>
+  </si>
+  <si>
+    <t>A subsidiary in another country is subject to local reporting standards that differ from IFRS. Management has not reconciled these differences in the group financials. Outline the potential compliance risks and propose steps for consistent reporting across jurisdictions.</t>
+  </si>
+  <si>
+    <t>IFRS (Group Reporting), Local GAAP, COSO Internal Control</t>
+  </si>
+  <si>
+    <t>Compliance with Local Regulations</t>
+  </si>
+  <si>
+    <t>A multinational company applies inconsistent revenue recognition policies across its subsidiaries, resulting in different cut-off dates and partial accruals. Investigate how this might breach IFRS 15 (Revenue from Contracts with Customers). Outline the internal control gaps using COSO Internal Control principles, and discuss how management can strengthen SOX Section 404 compliance</t>
+  </si>
+  <si>
+    <t>IFRS 15 (Revenue Recognition), COSO Internal Control (Control Activities, Monitoring), SOX (Section 404 – Internal Controls over Financial Reporting)</t>
+  </si>
+  <si>
+    <t>Revenue Recognition</t>
+  </si>
+  <si>
+    <t>The quarterly close process is rushed, causing errors in financial statements. Identify the risks to IFRS compliance and highlight how COSO Internal Control can guide the design of a more robust close process. Evaluate how the organization can reduce its SOX compliance risks by improving period-end controls and reconciliations.</t>
+  </si>
+  <si>
+    <t>Financial Close &amp; Reporting</t>
+  </si>
+  <si>
+    <t>IFRS,COSO Internal Control, SOX (Sections 302, 404)</t>
+  </si>
+  <si>
+    <t>Impairment Testing</t>
+  </si>
+  <si>
+    <t>Management has not conducted an annual impairment review on intangible assets. Discuss how this could violate IFRS (IAS 36) and propose an internal control approach based on COSO to ensure timely impairment testing. Also consider how this deficiency could affect the company’s SOX control environment.</t>
+  </si>
+  <si>
+    <t>IFRS (IAS 36), COSO Internal Control, SOX (Control Environment, 404)</t>
+  </si>
+  <si>
+    <t>The company’s budgeting process lacks scenario analysis, resulting in unrealistic forecasts. Show how COSO ERM can help integrate strategic risk assessments into budgeting. Discuss how unreliable forecasts could lead to misstatements under IFRS and potentially trigger SOX compliance issues if forecasts are used in financial reporting.</t>
+  </si>
+  <si>
+    <t>Forecasting &amp; Budgeting</t>
+  </si>
+  <si>
+    <t>COSO ERM (Strategic Planning, Risk Appetite), IFRS,SOX (Sections 302, 404 if forecasts impact reported figures)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -794,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CF1F93-0AD0-1F4F-8FEB-3EC903685091}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1534,6 +1697,174 @@
         <v>111</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
     <sortCondition ref="A2:A52"/>

--- a/domain-prompts.xlsx
+++ b/domain-prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaseminoztas/Desktop/my_audit_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A6AE42-4D62-264E-BA0A-7CAC6ADA4B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92976CA-0B65-A64C-8C44-16A99EB25E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{E47FA30C-7F41-214C-8FD8-D3405F53DFDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="204">
   <si>
     <t>Domain</t>
   </si>
@@ -578,6 +578,120 @@
   </si>
   <si>
     <t>COSO ERM (Strategic Planning, Risk Appetite), IFRS,SOX (Sections 302, 404 if forecasts impact reported figures)</t>
+  </si>
+  <si>
+    <t>Local workstation users can install any software they wish, including unapproved executables. Investigate how unrestricted installation rights create security risks (e.g., malware, unauthorized tools). Recommend technical and administrative controls to enforce application whitelisting and reduce endpoint vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Endpoint security, privileged access, software installation, application whitelisting, malware risk</t>
+  </si>
+  <si>
+    <t>Critical security patches for operating systems and databases are not applied in a timely manner. Discuss the risk of known exploits, referencing NIST CSF ‘Protect’ (PR.IP-12). Propose a patch management process that includes testing, scheduling, and monitoring compliance.</t>
+  </si>
+  <si>
+    <t>Patch management, vulnerability management, NIST CSF PR.IP-12, testing, scheduling, compliance</t>
+  </si>
+  <si>
+    <t>The internal finance server is on the same network segment as general user workstations. Explain how poor segmentation increases the risk of lateral movement and unauthorized access. Propose a network zoning approach referencing ISO 27001 A.13.1 to isolate critical systems.”</t>
+  </si>
+  <si>
+    <t>Network segmentation, lateral movement, ISO 27001 A.13.1, zoning approach, critical systems isolation</t>
+  </si>
+  <si>
+    <t>Backups of production databases are stored on the same SAN without encryption. Evaluate how this could expose data if the SAN is compromised. Recommend a secure backup strategy (e.g., offsite storage, encryption, regular recovery tests) aligned with ISO 27001 A.12.3.”</t>
+  </si>
+  <si>
+    <t>Backup and recovery, same SAN, encryption, offsite storage, ISO 27001 A.12.3, regular recovery tests</t>
+  </si>
+  <si>
+    <t>Contractors connect remotely to the corporate network using VPN accounts shared among team members. Discuss the accountability risks and propose an individual account approach, integrating MFA and time-bound access in line with ISO 27001 A.9.4.</t>
+  </si>
+  <si>
+    <t>Remote Access Controls</t>
+  </si>
+  <si>
+    <t>Remote access, contractor VPN, shared accounts, accountability, MFA, ISO 27001 A.9.4, time-bound access</t>
+  </si>
+  <si>
+    <t>A critical security incident was discovered but not escalated for several days due to unclear procedures. Examine how the lack of an incident response plan (IRP) and contact list violates NIST CSF ‘Respond’ (RS.CO). Recommend a formal IRP with defined roles, escalation paths, and post-incident reviews.</t>
+  </si>
+  <si>
+    <t>Incident Response</t>
+  </si>
+  <si>
+    <t>Incident response, unclear procedures, NIST CSF RS.CO, escalation paths, post-incident reviews</t>
+  </si>
+  <si>
+    <t>During an OS-level review, you find that local admin rights are granted by default to all new employees. Assess how this violates the principle of least privilege and propose a policy to ensure proper role-based privileges, referencing ISO 27001 A.9.2 (User Access Management).</t>
+  </si>
+  <si>
+    <t>Operating system security, local admin rights, least privilege, ISO 27001 A.9.2, user access management</t>
+  </si>
+  <si>
+    <t>In an SAP environment, a single user can both create vendors and approve payments. Evaluate how this segregation of duties (SoD) conflict could lead to fraud or data manipulation, referencing COBIT or SOX guidelines. Propose a redesign of SAP roles and a monitoring process to mitigate this risk.</t>
+  </si>
+  <si>
+    <t>SAP security, critical privileges, segregation of duties, role redesign, COBIT, SOX, fraud prevention</t>
+  </si>
+  <si>
+    <t>Password policies in Active Directory are not enforced (e.g., password length, complexity). Assess the potential impact on user authentication security and propose a policy update, mapping each recommendation to ISO 27001 A.9.3 or CIS Controls (Control 5) for account management.</t>
+  </si>
+  <si>
+    <t>Windows Active Directory Security</t>
+  </si>
+  <si>
+    <t>Active Directory, password policy, ISO 27001 A.9.3, CIS Controls, account management, authentication</t>
+  </si>
+  <si>
+    <t>Developers push code directly to production without code reviews or automated security scans. Investigate how this practice increases the risk of introducing vulnerabilities and propose a CI/CD pipeline that includes peer reviews, automated testing (SAST/DAST), and approval gates aligned with industry best practices.</t>
+  </si>
+  <si>
+    <t>DevOps / CI/CD Pipeline Security</t>
+  </si>
+  <si>
+    <t>DevOps, CI/CD, code reviews, automated testing, SAST/DAST, approval gates, software vulnerabilities</t>
+  </si>
+  <si>
+    <t>Database encryption keys are stored in plaintext on the same server that hosts the database. Assess the risk of unauthorized decryption and propose a secure key management solution (e.g., HSM or KMS) along with periodic key rotation.</t>
+  </si>
+  <si>
+    <t>Encryption &amp; Key Management</t>
+  </si>
+  <si>
+    <t>Encryption, key management, plaintext keys, HSM, KMS, key rotation</t>
+  </si>
+  <si>
+    <t>Critical IT services are outsourced to a vendor that does not undergo security audits. Evaluate the risks of insufficient vendor oversight, referencing ISO 27001 A.15 (Supplier Relationships). Propose a vendor risk management program including due diligence, contract clauses, and ongoing monitoring.</t>
+  </si>
+  <si>
+    <t>Third-party risk, vendor oversight, ISO 27001 A.15, due diligence, contract clauses, ongoing monitoring</t>
+  </si>
+  <si>
+    <t>Although a disaster recovery plan exists on paper, the organization has not tested it in over a year. Discuss how the lack of DR testing endangers business continuity, referencing COBIT DSS04 (Manage Continuity). Recommend a regular test schedule (tabletop and full recovery) to validate DR readiness.</t>
+  </si>
+  <si>
+    <t>Business continuity, DR testing, COBIT DSS04, tabletop exercises, recovery validation</t>
+  </si>
+  <si>
+    <t>A privileged user accessed sensitive financial data outside of normal working hours without a valid ticket. Investigate how the lack of user behavior analytics (UBA) and real-time alerts could delay detection of insider threats. Recommend solutions like SIEM/UBA integration and stricter access policies.</t>
+  </si>
+  <si>
+    <t>Insider threat, privileged user monitoring, user behavior analytics, SIEM, access policies</t>
+  </si>
+  <si>
+    <t>No regular vulnerability scans or penetration tests are conducted, leaving systems potentially exposed to known exploits. Assess how this lack of proactive security testing increases risk and propose a program of scheduled scans and external pen tests aligned with NIST CSF ‘Identify’ and ‘Protect’ functions.</t>
+  </si>
+  <si>
+    <t>Vulnerability scanning, penetration testing, known exploits, NIST CSF Identify, NIST CSF Protect, proactive security testing</t>
+  </si>
+  <si>
+    <t>Legacy operating systems that are no longer supported by the vendor are still in use on critical servers. Discuss the security and compliance implications, referencing COBIT’s ‘Manage Change’ (BAI06). Propose a migration or segmentation strategy to mitigate risks associated with EOL systems.</t>
+  </si>
+  <si>
+    <t>End-of-Life / Unsupported Systems</t>
+  </si>
+  <si>
+    <t>End-of-life systems, legacy OS, COBIT BAI06, migration, segmentation, compliance</t>
   </si>
 </sst>
 </file>
@@ -957,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CF1F93-0AD0-1F4F-8FEB-3EC903685091}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,44 +1141,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1072,13 +1186,13 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1086,13 +1200,13 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1100,13 +1214,13 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1114,55 +1228,55 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1170,13 +1284,13 @@
         <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1184,13 +1298,13 @@
         <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1198,13 +1312,13 @@
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1212,13 +1326,13 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1226,13 +1340,13 @@
         <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1240,13 +1354,13 @@
         <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1254,13 +1368,13 @@
         <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1268,13 +1382,13 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1282,55 +1396,55 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1338,13 +1452,13 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1352,13 +1466,13 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1366,13 +1480,13 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1380,13 +1494,13 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1394,13 +1508,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1408,13 +1522,13 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1422,13 +1536,13 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1436,13 +1550,13 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1450,13 +1564,13 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1464,13 +1578,13 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1478,13 +1592,13 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1492,382 +1606,606 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
         <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
         <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
         <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
         <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
         <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
         <v>130</v>
       </c>
       <c r="D64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" t="s">
         <v>165</v>
       </c>
     </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
-    <sortCondition ref="A2:A52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
+    <sortCondition descending="1" ref="C1:C75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/domain-prompts.xlsx
+++ b/domain-prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaseminoztas/Desktop/my_audit_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92976CA-0B65-A64C-8C44-16A99EB25E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A865CB2-ED2C-8049-8843-62471DA49DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{E47FA30C-7F41-214C-8FD8-D3405F53DFDC}"/>
   </bookViews>
@@ -159,12 +159,6 @@
   </si>
   <si>
     <t>Key IT assets are not inventoried or classified. Explain how this violates ISO 27001 A.8 (Asset Management) and COBIT APO01 (Manage Strategy). Outline steps to implement a formal asset register and classification scheme.</t>
-  </si>
-  <si>
-    <t>Audit Type</t>
-  </si>
-  <si>
-    <t>IT Audit</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -472,9 +466,6 @@
     </r>
   </si>
   <si>
-    <t>Business Audit</t>
-  </si>
-  <si>
     <t>Financial Reporting</t>
   </si>
   <si>
@@ -692,6 +683,15 @@
   </si>
   <si>
     <t>End-of-life systems, legacy OS, COBIT BAI06, migration, segmentation, compliance</t>
+  </si>
+  <si>
+    <t>Prompt Type</t>
+  </si>
+  <si>
+    <t>IT Prompts</t>
+  </si>
+  <si>
+    <t>Business Prompts</t>
   </si>
 </sst>
 </file>
@@ -1073,13 +1073,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CF1F93-0AD0-1F4F-8FEB-3EC903685091}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="131.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1091,24 +1092,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,10 +1120,10 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1133,10 +1134,10 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1144,13 +1145,13 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1161,10 +1162,10 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1175,10 +1176,10 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1189,10 +1190,10 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1203,10 +1204,10 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1217,10 +1218,10 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1231,10 +1232,10 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1242,13 +1243,13 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1259,178 +1260,178 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" t="s">
         <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" t="s">
         <v>86</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1441,10 +1442,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1455,10 +1456,10 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1469,10 +1470,10 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1483,10 +1484,10 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1497,10 +1498,10 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1511,10 +1512,10 @@
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1525,10 +1526,10 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1539,10 +1540,10 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1553,10 +1554,10 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1567,10 +1568,10 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1581,10 +1582,10 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1592,13 +1593,13 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1606,13 +1607,13 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1620,13 +1621,13 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1634,13 +1635,13 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1648,13 +1649,13 @@
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1662,55 +1663,55 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" t="s">
         <v>113</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1721,10 +1722,10 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1735,10 +1736,10 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1749,66 +1750,66 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" t="s">
         <v>79</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" t="s">
         <v>71</v>
-      </c>
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1819,38 +1820,38 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1861,10 +1862,10 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1875,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" t="s">
         <v>42</v>
-      </c>
-      <c r="D57" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1886,251 +1887,251 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" t="s">
         <v>74</v>
-      </c>
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" t="s">
         <v>129</v>
-      </c>
-      <c r="C66" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2138,13 +2139,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2152,55 +2153,55 @@
         <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
